--- a/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H2">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I2">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J2">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.2281042436324</v>
+        <v>48.3439545</v>
       </c>
       <c r="N2">
-        <v>48.2281042436324</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O2">
-        <v>0.5955791056817948</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P2">
-        <v>0.5955791056817948</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q2">
-        <v>10.38956289923639</v>
+        <v>13.5492795544575</v>
       </c>
       <c r="R2">
-        <v>10.38956289923639</v>
+        <v>81.29567732674499</v>
       </c>
       <c r="S2">
-        <v>0.3434648081094125</v>
+        <v>0.2573986410766819</v>
       </c>
       <c r="T2">
-        <v>0.3434648081094125</v>
+        <v>0.2418484879849969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H3">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I3">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J3">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.58055528418522</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N3">
-        <v>3.58055528418522</v>
+        <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04421703791686597</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P3">
-        <v>0.04421703791686597</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q3">
-        <v>0.7713428699438707</v>
+        <v>1.052836589062222</v>
       </c>
       <c r="R3">
-        <v>0.7713428699438707</v>
+        <v>9.47552930156</v>
       </c>
       <c r="S3">
-        <v>0.02549954539774784</v>
+        <v>0.02000096803754194</v>
       </c>
       <c r="T3">
-        <v>0.02549954539774784</v>
+        <v>0.02818898261009883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H4">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I4">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J4">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.3535515704636</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N4">
-        <v>24.3535515704636</v>
+        <v>0.106456</v>
       </c>
       <c r="O4">
-        <v>0.3007471824154734</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P4">
-        <v>0.3007471824154734</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q4">
-        <v>5.246375735254733</v>
+        <v>0.009945415231111112</v>
       </c>
       <c r="R4">
-        <v>5.246375735254733</v>
+        <v>0.08950873708</v>
       </c>
       <c r="S4">
-        <v>0.1734380409123452</v>
+        <v>0.000188935238596443</v>
       </c>
       <c r="T4">
-        <v>0.1734380409123452</v>
+        <v>0.000266281719226453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.215425488150058</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H5">
-        <v>0.215425488150058</v>
+        <v>0.840805</v>
       </c>
       <c r="I5">
-        <v>0.5766904930558771</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J5">
-        <v>0.5766904930558771</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.81461260748464</v>
+        <v>24.727721</v>
       </c>
       <c r="N5">
-        <v>4.81461260748464</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O5">
-        <v>0.05945667398586567</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P5">
-        <v>0.05945667398586567</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q5">
-        <v>1.037190271220802</v>
+        <v>6.930397151801667</v>
       </c>
       <c r="R5">
-        <v>1.037190271220802</v>
+        <v>62.37357436621501</v>
       </c>
       <c r="S5">
-        <v>0.03428809863637141</v>
+        <v>0.1316582776099405</v>
       </c>
       <c r="T5">
-        <v>0.03428809863637141</v>
+        <v>0.1855566636102821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.158129288188495</v>
+        <v>0.2802683333333333</v>
       </c>
       <c r="H6">
-        <v>0.158129288188495</v>
+        <v>0.840805</v>
       </c>
       <c r="I6">
-        <v>0.4233095069441229</v>
+        <v>0.4358205226290478</v>
       </c>
       <c r="J6">
-        <v>0.4233095069441229</v>
+        <v>0.4808287269437477</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.2281042436324</v>
+        <v>4.9910045</v>
       </c>
       <c r="N6">
-        <v>48.2281042436324</v>
+        <v>9.982009</v>
       </c>
       <c r="O6">
-        <v>0.5955791056817948</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P6">
-        <v>0.5955791056817948</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q6">
-        <v>7.626275794726127</v>
+        <v>1.398820512874167</v>
       </c>
       <c r="R6">
-        <v>7.626275794726127</v>
+        <v>8.392923077244999</v>
       </c>
       <c r="S6">
-        <v>0.2521142975723823</v>
+        <v>0.02657370066628712</v>
       </c>
       <c r="T6">
-        <v>0.2521142975723823</v>
+        <v>0.02496831101914337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H7">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I7">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J7">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.58055528418522</v>
+        <v>48.3439545</v>
       </c>
       <c r="N7">
-        <v>3.58055528418522</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O7">
-        <v>0.04421703791686597</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P7">
-        <v>0.04421703791686597</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q7">
-        <v>0.5661906584077633</v>
+        <v>5.825623778416499</v>
       </c>
       <c r="R7">
-        <v>0.5661906584077633</v>
+        <v>34.953742670499</v>
       </c>
       <c r="S7">
-        <v>0.01871749251911812</v>
+        <v>0.110670655067789</v>
       </c>
       <c r="T7">
-        <v>0.01871749251911812</v>
+        <v>0.1039847393152327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.158129288188495</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H8">
-        <v>0.158129288188495</v>
+        <v>0.361511</v>
       </c>
       <c r="I8">
-        <v>0.4233095069441229</v>
+        <v>0.1873846051773594</v>
       </c>
       <c r="J8">
-        <v>0.4233095069441229</v>
+        <v>0.2067362514568315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.3535515704636</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N8">
-        <v>24.3535515704636</v>
+        <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.3007471824154734</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P8">
-        <v>0.3007471824154734</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q8">
-        <v>3.851009774699214</v>
+        <v>0.4526757192791111</v>
       </c>
       <c r="R8">
-        <v>3.851009774699214</v>
+        <v>4.074081473512</v>
       </c>
       <c r="S8">
-        <v>0.1273091415031283</v>
+        <v>0.008599580112178002</v>
       </c>
       <c r="T8">
-        <v>0.1273091415031283</v>
+        <v>0.01212008407699697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.361511</v>
+      </c>
+      <c r="I9">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J9">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.106456</v>
+      </c>
+      <c r="O9">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P9">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q9">
+        <v>0.004276112779555556</v>
+      </c>
+      <c r="R9">
+        <v>0.038485015016</v>
+      </c>
+      <c r="S9">
+        <v>8.123425412579457E-05</v>
+      </c>
+      <c r="T9">
+        <v>0.0001144900073135557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.361511</v>
+      </c>
+      <c r="I10">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J10">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.727721</v>
+      </c>
+      <c r="N10">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P10">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q10">
+        <v>2.979781048810334</v>
+      </c>
+      <c r="R10">
+        <v>26.818029439293</v>
+      </c>
+      <c r="S10">
+        <v>0.0566075553749647</v>
+      </c>
+      <c r="T10">
+        <v>0.07978160812366328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="H9">
-        <v>0.158129288188495</v>
-      </c>
-      <c r="I9">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="J9">
-        <v>0.4233095069441229</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="N9">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="O9">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="P9">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="Q9">
-        <v>0.7613312645249</v>
-      </c>
-      <c r="R9">
-        <v>0.7613312645249</v>
-      </c>
-      <c r="S9">
-        <v>0.02516857534949426</v>
-      </c>
-      <c r="T9">
-        <v>0.02516857534949426</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1205036666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.361511</v>
+      </c>
+      <c r="I11">
+        <v>0.1873846051773594</v>
+      </c>
+      <c r="J11">
+        <v>0.2067362514568315</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.9910045</v>
+      </c>
+      <c r="N11">
+        <v>9.982009</v>
+      </c>
+      <c r="O11">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P11">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q11">
+        <v>0.6014343425998333</v>
+      </c>
+      <c r="R11">
+        <v>3.608606055599</v>
+      </c>
+      <c r="S11">
+        <v>0.01142558036830195</v>
+      </c>
+      <c r="T11">
+        <v>0.01073532993362497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.061722</v>
+      </c>
+      <c r="H12">
+        <v>0.185166</v>
+      </c>
+      <c r="I12">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J12">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>48.3439545</v>
+      </c>
+      <c r="N12">
+        <v>96.68790899999999</v>
+      </c>
+      <c r="O12">
+        <v>0.5906069762936997</v>
+      </c>
+      <c r="P12">
+        <v>0.5029826098832294</v>
+      </c>
+      <c r="Q12">
+        <v>2.983885559648999</v>
+      </c>
+      <c r="R12">
+        <v>17.903313357894</v>
+      </c>
+      <c r="S12">
+        <v>0.05668552966931081</v>
+      </c>
+      <c r="T12">
+        <v>0.05326100240392235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.061722</v>
+      </c>
+      <c r="H13">
+        <v>0.185166</v>
+      </c>
+      <c r="I13">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J13">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N13">
+        <v>11.269592</v>
+      </c>
+      <c r="O13">
+        <v>0.04589267140722955</v>
+      </c>
+      <c r="P13">
+        <v>0.05862582876292385</v>
+      </c>
+      <c r="Q13">
+        <v>0.231860585808</v>
+      </c>
+      <c r="R13">
+        <v>2.086745272272</v>
+      </c>
+      <c r="S13">
+        <v>0.004404706498700044</v>
+      </c>
+      <c r="T13">
+        <v>0.006207909270260712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.061722</v>
+      </c>
+      <c r="H14">
+        <v>0.185166</v>
+      </c>
+      <c r="I14">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J14">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.106456</v>
+      </c>
+      <c r="O14">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P14">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q14">
+        <v>0.002190225744</v>
+      </c>
+      <c r="R14">
+        <v>0.019712031696</v>
+      </c>
+      <c r="S14">
+        <v>4.160819974898931E-05</v>
+      </c>
+      <c r="T14">
+        <v>5.864180258476743E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.061722</v>
+      </c>
+      <c r="H15">
+        <v>0.185166</v>
+      </c>
+      <c r="I15">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J15">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.727721</v>
+      </c>
+      <c r="N15">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P15">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q15">
+        <v>1.526244395562</v>
+      </c>
+      <c r="R15">
+        <v>13.736199560058</v>
+      </c>
+      <c r="S15">
+        <v>0.02899440016641461</v>
+      </c>
+      <c r="T15">
+        <v>0.04086415420229601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.061722</v>
+      </c>
+      <c r="H16">
+        <v>0.185166</v>
+      </c>
+      <c r="I16">
+        <v>0.09597842887843229</v>
+      </c>
+      <c r="J16">
+        <v>0.105890345625045</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.9910045</v>
+      </c>
+      <c r="N16">
+        <v>9.982009</v>
+      </c>
+      <c r="O16">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P16">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q16">
+        <v>0.308054779749</v>
+      </c>
+      <c r="R16">
+        <v>1.848328678494</v>
+      </c>
+      <c r="S16">
+        <v>0.005852184344257849</v>
+      </c>
+      <c r="T16">
+        <v>0.005498637945981174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.180588</v>
+      </c>
+      <c r="H17">
+        <v>0.361176</v>
+      </c>
+      <c r="I17">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J17">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>48.3439545</v>
+      </c>
+      <c r="N17">
+        <v>96.68790899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.5906069762936997</v>
+      </c>
+      <c r="P17">
+        <v>0.5029826098832294</v>
+      </c>
+      <c r="Q17">
+        <v>8.730338055245999</v>
+      </c>
+      <c r="R17">
+        <v>34.921352220984</v>
+      </c>
+      <c r="S17">
+        <v>0.165852150479918</v>
+      </c>
+      <c r="T17">
+        <v>0.1038883801790775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.180588</v>
+      </c>
+      <c r="H18">
+        <v>0.361176</v>
+      </c>
+      <c r="I18">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J18">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N18">
+        <v>11.269592</v>
+      </c>
+      <c r="O18">
+        <v>0.04589267140722955</v>
+      </c>
+      <c r="P18">
+        <v>0.05862582876292385</v>
+      </c>
+      <c r="Q18">
+        <v>0.678384360032</v>
+      </c>
+      <c r="R18">
+        <v>4.070306160192</v>
+      </c>
+      <c r="S18">
+        <v>0.01288741675880956</v>
+      </c>
+      <c r="T18">
+        <v>0.01210885280556735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.180588</v>
+      </c>
+      <c r="H19">
+        <v>0.361176</v>
+      </c>
+      <c r="I19">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J19">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.106456</v>
+      </c>
+      <c r="O19">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P19">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q19">
+        <v>0.006408225376</v>
+      </c>
+      <c r="R19">
+        <v>0.038449352256</v>
+      </c>
+      <c r="S19">
+        <v>0.0001217384656406222</v>
+      </c>
+      <c r="T19">
+        <v>0.0001143839133013402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.180588</v>
+      </c>
+      <c r="H20">
+        <v>0.361176</v>
+      </c>
+      <c r="I20">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J20">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.727721</v>
+      </c>
+      <c r="N20">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P20">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q20">
+        <v>4.465529679948</v>
+      </c>
+      <c r="R20">
+        <v>26.793178079688</v>
+      </c>
+      <c r="S20">
+        <v>0.08483264860588577</v>
+      </c>
+      <c r="T20">
+        <v>0.07970767720946861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.180588</v>
+      </c>
+      <c r="H21">
+        <v>0.361176</v>
+      </c>
+      <c r="I21">
+        <v>0.2808164433151604</v>
+      </c>
+      <c r="J21">
+        <v>0.2065446759743758</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.9910045</v>
+      </c>
+      <c r="N21">
+        <v>9.982009</v>
+      </c>
+      <c r="O21">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P21">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q21">
+        <v>0.901315520646</v>
+      </c>
+      <c r="R21">
+        <v>3.605262082584</v>
+      </c>
+      <c r="S21">
+        <v>0.01712248900490646</v>
+      </c>
+      <c r="T21">
+        <v>0.01072538186696098</v>
       </c>
     </row>
   </sheetData>
